--- a/Model/lbl.xlsx
+++ b/Model/lbl.xlsx
@@ -13,7 +13,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -285,7 +411,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -321,11 +447,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -355,6 +495,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,17 +526,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Model/lbl.xlsx
+++ b/Model/lbl.xlsx
@@ -13,7 +13,943 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -411,7 +1347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="147">
     <border>
       <left/>
       <right/>
@@ -461,11 +1397,115 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -509,6 +1549,110 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,17 +1670,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>123</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>124</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
